--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560322/JX560322_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560322/JX560322_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89298473294</v>
+        <v>45441.83324788079</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1419a&gt;c']</t>
+          <t>['1567_1713del', '1460_1594del', '1482_1596insgttgaaataccctcacccaacacctgcaccctactgctggaatcgactcttgtgcgcaccggcgagttggtaggtcgatgtgatttcaagaactacaattttattgcgaggcgt', '1534_1593del', '1571_1636del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89298475608</v>
+        <v>45441.83324790971</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['199_201del']</t>
+          <t>['227_284del', '254_341del', '230_311inscgttcagctccgaccgacgaccggcagagcagagttactgctacgctttgcctggattatattcgcgagcgcttctctgca', '239_350insattgttcgggggactgtgcgcacgctccctgatagtcagcagggaaaaaagggttcattaccttgggggacgactgtcgaccgagggttatggtaggcagcgctgtatttt', '181_247insaagctgatttgcaacgtatgacgacacccctcaccatttccaggtccctaatcacgttatccaatc']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89298477922</v>
+        <v>45441.83324793864</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3912_3913insa']</t>
+          <t>['3866_3971insgggtctgcgtcacgcggattcttatcgcgtacgtgagagctgtgtcgcaaatggtctacgggtggaatcttctcctgaggatatccatataacaaggaacgaaca', '3901_3969inscataattaattgcctgtgacaacggagcggtgggactgcgggacgaatcgttactctcatttattggt', '3924_3989del', '3893_3935insacagaagcatgggtaacgaccgctatcgggccaccgtctagc', '3872_3964del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89298480238</v>
+        <v>45441.83324807489</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1523_1524insa']</t>
+          <t>['1486_1618inscactccgaatctcccccgtatcagatgcggcttgtagtcgtaccaagaaatgcattgtgtatcccgcgtgaggaccctggttcatacgcccatgcagacagttctaattggacgtcctagccagcgcgcagg', '1524_1661del', '1416_1557del', '1538_1645del', '1439_1510inscggcgtgaaagtacccgctcccgattaaagaacgtcgtaagggggattacggttagtcgcttagatatgac']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['201t&gt;g']</t>
+          <t>['170_249del', '179_253insccgagtagcagcggaggagcccgttggccaacaagcaccgcgaagggccatggttgcaggccagaaggatttct', '244_342del', '233_275insaagctgaccgaacgcgaggatatcaacctcggcgtaacacag', '164_225del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89298482552</v>
+        <v>45441.83324809805</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1540_1544insttct']</t>
+          <t>['1495_1512del', '1498_1522del', '1371_1390del', '1462_1477del', '1538_1660del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3907_3912insaggct']</t>
+          <t>['3852_3928del', '3846_3891del', '3889_3929insagacgttgcttctcctgatcagggtcgtcggtggtcagca', '3849_3902del', '3905_4030del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.8929848429</v>
+        <v>45441.83324811541</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['219t&gt;g']</t>
+          <t>['227_342inscacacgtggtgatcagatcattgaacatactatcacaaaaggttagtgtgtcccttatgagtcggtagttgagcctcctagtgaatacaagaatcccaatgcatcgtgggcgctc', '234_312del', '201_335insatcataagaaaacctctccgcggcattgagaaaacacaaatgcggaaatgagagtagactatcgactaaactggcctattcctattctagaatgcttgcgtcgccaatgttccagtcgaagcccccgcagaatg', '180_329insaccccgttgacctccgcggagccacagctatacgctaagccctatttccagaactggagtctgcccgcagtatgcgatgaatgtacatcaggaatactcgaacaaatacgtgggtaatatgcaggtccttggttcgattcgtctatact', '210_311instgcatattcctcggttaccaccccgatatgtcataagaaggccaggcagagtagtagggtcacctaaactgtggagacatagatcggacccgattccgatt']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3904_3904del']</t>
+          <t>['3830_3846insgaataggtttcctatc', '3882_3901del', '3844_3961insaggtgagatgataagctgttaggggaacacgttaacagtttgccgtatggtagactggatttcgagtcgcaagacataatctcccgccacgttgttgcagtaagctcaggggtttct', '3820_3885instcgtatggcgccctaagcggtgccatagaccggcttactacgtcttatcgaaagatggtgagcgg', '3911_3967insctgcgttcgtaatccaccaaaataagggcggataatccgtggccgacctgtgaata']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89298486024</v>
+        <v>45441.83324813857</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1447_1451instatt']</t>
+          <t>['1404_1492del', '1488_1515instagctgtcaccgatgaaggatgtgcca', '1464_1611insacgggatccagtccaccgttaggacgtcatactgtagatgcacgggtgtcaaggcatttacggacggccaagaagcaccaaattaccaatagggcttagatatgatgcgtttgtggggcgggcttgtaacacgtctggtcggaccga', '1518_1599del', '1509_1647del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['236t&gt;g']</t>
+          <t>['177_250del', '251_392del', '184_317insttctcaaaaacaagcgtacgcaattctggtaccgtgctggcccgtataccagacatagcattaatcaaccatcattacctgcgtgagtcgaaagctgtaatcgttggcggaaagtcagtctttgttcgatccg', '234_317del', '182_306del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3866_3867del']</t>
+          <t>['3913_4039del', '3915_4045insacaagggtaattgccaattcatagtaattacccgagctaatgactgtattggtatactaacgctggccggaacccgaaccaataccgtcgatgcccgtagcatgaaagaatcacccctatcctaggctgt', '3893_3988del', '3918_3937del', '3899_4042del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89298488339</v>
+        <v>45441.83324816173</v>
       </c>
     </row>
   </sheetData>
